--- a/izin-takip/approved_leaves.xlsx
+++ b/izin-takip/approved_leaves.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -41,88 +41,28 @@
     <t>Durum</t>
   </si>
   <si>
-    <t>mehmetkaya@example.com</t>
+    <t>cemreaydın@example.com</t>
   </si>
   <si>
-    <t>Mehmet</t>
+    <t>Cemre</t>
   </si>
   <si>
-    <t>Kaya</t>
+    <t>Aydın</t>
   </si>
   <si>
-    <t>mehmet.kaya@example.com</t>
+    <t>cemre.aydın@example.com</t>
   </si>
   <si>
-    <t>2024-08-12</t>
+    <t>2025-04-30</t>
   </si>
   <si>
-    <t>2024-08-14</t>
+    <t>2025-05-17</t>
   </si>
   <si>
-    <t>"Çocuğumun okul kaydı için 3 gün izin gerekiyor."</t>
+    <t>ghjkjnlkml</t>
   </si>
   <si>
     <t>onaylanan</t>
-  </si>
-  <si>
-    <t>zeynepdemir@example.com</t>
-  </si>
-  <si>
-    <t>Zeynep</t>
-  </si>
-  <si>
-    <t>Demir</t>
-  </si>
-  <si>
-    <t>zeynep.demir@example.com</t>
-  </si>
-  <si>
-    <t>2024-08-16</t>
-  </si>
-  <si>
-    <t>"Ailemle tatil planım var. 5 gün izin talep ediyorum."</t>
-  </si>
-  <si>
-    <t>canöztürk@example.com</t>
-  </si>
-  <si>
-    <t>Can</t>
-  </si>
-  <si>
-    <t>Öztürk</t>
-  </si>
-  <si>
-    <t>can.öztürk@example.com</t>
-  </si>
-  <si>
-    <t>2024-07-16</t>
-  </si>
-  <si>
-    <t>2024-07-27</t>
-  </si>
-  <si>
-    <t>"Yaz tatilim için 12 gün izin talep ediyorum."</t>
-  </si>
-  <si>
-    <t>elifarslan@example.com</t>
-  </si>
-  <si>
-    <t>Elif</t>
-  </si>
-  <si>
-    <t>Arslan</t>
-  </si>
-  <si>
-    <t>elif.arslan@example.com</t>
-  </si>
-  <si>
-    <t>2024-05-02</t>
-  </si>
-  <si>
-    <t>2024-05-04</t>
-  </si>
-  <si>
-    <t>"1 Mayıs tatilinde aile ziyareti için 3 gün izin talep ediyorum."</t>
   </si>
 </sst>
 </file>
@@ -167,7 +107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -204,7 +144,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>2.0</v>
+        <v>50.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>9</v>
@@ -231,93 +171,6 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s" s="0">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s" s="0">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="H5" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="I5" t="s" s="0">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/izin-takip/approved_leaves.xlsx
+++ b/izin-takip/approved_leaves.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -41,28 +41,46 @@
     <t>Durum</t>
   </si>
   <si>
-    <t>cemreaydın@example.com</t>
-  </si>
-  <si>
-    <t>Cemre</t>
-  </si>
-  <si>
-    <t>Aydın</t>
-  </si>
-  <si>
-    <t>cemre.aydın@example.com</t>
-  </si>
-  <si>
-    <t>2025-04-30</t>
-  </si>
-  <si>
-    <t>2025-05-17</t>
-  </si>
-  <si>
-    <t>ghjkjnlkml</t>
+    <t>ahmetyılmaz@example.com</t>
+  </si>
+  <si>
+    <t>Ahmet</t>
+  </si>
+  <si>
+    <t>Yılmaz</t>
+  </si>
+  <si>
+    <t>ahmet.yılmaz@example.com</t>
+  </si>
+  <si>
+    <t>2024-08-12</t>
+  </si>
+  <si>
+    <t>2024-08-17</t>
+  </si>
+  <si>
+    <t>"Kardeşimin düğünü için 6 gün izin talep ediyorum. Tarih değişikliği yapamam."</t>
   </si>
   <si>
     <t>onaylanan</t>
+  </si>
+  <si>
+    <t>mehmetkaya@example.com</t>
+  </si>
+  <si>
+    <t>Mehmet</t>
+  </si>
+  <si>
+    <t>Kaya</t>
+  </si>
+  <si>
+    <t>mehmet.kaya@example.com</t>
+  </si>
+  <si>
+    <t>2024-08-14</t>
+  </si>
+  <si>
+    <t>"Çocuğumun okul kaydı için 3 gün izin gerekiyor."</t>
   </si>
 </sst>
 </file>
@@ -107,7 +125,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -144,7 +162,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>50.0</v>
+        <v>1.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>9</v>
@@ -168,6 +186,35 @@
         <v>15</v>
       </c>
       <c r="I2" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s" s="0">
         <v>16</v>
       </c>
     </row>

--- a/izin-takip/approved_leaves.xlsx
+++ b/izin-takip/approved_leaves.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="84">
   <si>
     <t>ID</t>
   </si>
@@ -81,6 +81,189 @@
   </si>
   <si>
     <t>"Çocuğumun okul kaydı için 3 gün izin gerekiyor."</t>
+  </si>
+  <si>
+    <t>zeynepdemir@example.com</t>
+  </si>
+  <si>
+    <t>Zeynep</t>
+  </si>
+  <si>
+    <t>Demir</t>
+  </si>
+  <si>
+    <t>zeynep.demir@example.com</t>
+  </si>
+  <si>
+    <t>2024-08-16</t>
+  </si>
+  <si>
+    <t>"Ailemle tatil planım var. 5 gün izin talep ediyorum."</t>
+  </si>
+  <si>
+    <t>ayşetekin@example.com</t>
+  </si>
+  <si>
+    <t>Ayşe</t>
+  </si>
+  <si>
+    <t>Tekin</t>
+  </si>
+  <si>
+    <t>ayşe.tekin@example.com</t>
+  </si>
+  <si>
+    <t>2024-10-28</t>
+  </si>
+  <si>
+    <t>2024-11-02</t>
+  </si>
+  <si>
+    <t>"29 Ekim tatilini köprü yaparak 6 gün izin kullanmak istiyorum."</t>
+  </si>
+  <si>
+    <t>canöztürk@example.com</t>
+  </si>
+  <si>
+    <t>Can</t>
+  </si>
+  <si>
+    <t>Öztürk</t>
+  </si>
+  <si>
+    <t>can.öztürk@example.com</t>
+  </si>
+  <si>
+    <t>2024-07-16</t>
+  </si>
+  <si>
+    <t>2024-07-27</t>
+  </si>
+  <si>
+    <t>"Yaz tatilim için 12 gün izin talep ediyorum."</t>
+  </si>
+  <si>
+    <t>elifarslan@example.com</t>
+  </si>
+  <si>
+    <t>Elif</t>
+  </si>
+  <si>
+    <t>Arslan</t>
+  </si>
+  <si>
+    <t>elif.arslan@example.com</t>
+  </si>
+  <si>
+    <t>2024-05-02</t>
+  </si>
+  <si>
+    <t>2024-05-04</t>
+  </si>
+  <si>
+    <t>"1 Mayıs tatilinde aile ziyareti için 3 gün izin talep ediyorum."</t>
+  </si>
+  <si>
+    <t>berkbalcı@example.com</t>
+  </si>
+  <si>
+    <t>Berk</t>
+  </si>
+  <si>
+    <t>Balcı</t>
+  </si>
+  <si>
+    <t>berk.balcı@example.com</t>
+  </si>
+  <si>
+    <t>2024-12-26</t>
+  </si>
+  <si>
+    <t>2024-12-31</t>
+  </si>
+  <si>
+    <t>"Yılbaşı tatilini uzatmak için 5 gün izin istiyorum."</t>
+  </si>
+  <si>
+    <t>sedayıldız@example.com</t>
+  </si>
+  <si>
+    <t>Seda</t>
+  </si>
+  <si>
+    <t>Yıldız</t>
+  </si>
+  <si>
+    <t>seda.yıldız@example.com</t>
+  </si>
+  <si>
+    <t>2024-02-14</t>
+  </si>
+  <si>
+    <t>2024-02-17</t>
+  </si>
+  <si>
+    <t>"Şubat tatilinde 4 gün çocuklarımla tatile çıkmak istiyorum."</t>
+  </si>
+  <si>
+    <t>okankoç@example.com</t>
+  </si>
+  <si>
+    <t>Okan</t>
+  </si>
+  <si>
+    <t>Koç</t>
+  </si>
+  <si>
+    <t>okan.koç@example.com</t>
+  </si>
+  <si>
+    <t>2024-06-17</t>
+  </si>
+  <si>
+    <t>2024-06-24</t>
+  </si>
+  <si>
+    <t>"Yıllık izin kullanmak istiyorum."</t>
+  </si>
+  <si>
+    <t>denizakın@example.com</t>
+  </si>
+  <si>
+    <t>Deniz</t>
+  </si>
+  <si>
+    <t>Akın</t>
+  </si>
+  <si>
+    <t>deniz.akın@example.com</t>
+  </si>
+  <si>
+    <t>2024-11-11</t>
+  </si>
+  <si>
+    <t>2024-11-15</t>
+  </si>
+  <si>
+    <t>eceçelik@example.com</t>
+  </si>
+  <si>
+    <t>Ece</t>
+  </si>
+  <si>
+    <t>Çelik</t>
+  </si>
+  <si>
+    <t>ece.çelik@example.com</t>
+  </si>
+  <si>
+    <t>2024-04-01</t>
+  </si>
+  <si>
+    <t>2024-04-05</t>
+  </si>
+  <si>
+    <t>"Yeni ev taşınmam için 6 gün izin gerekiyor."</t>
   </si>
 </sst>
 </file>
@@ -125,7 +308,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -218,6 +401,267 @@
         <v>16</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
